--- a/仕様/20170106仕様.xlsx
+++ b/仕様/20170106仕様.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="14400" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="14400" windowHeight="16755" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="島_生産力" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -320,9 +320,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -334,6 +331,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -378,6 +378,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -705,41 +710,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="F3" s="11" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="F3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -753,7 +758,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
@@ -773,7 +778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -799,7 +804,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>10</v>
       </c>
@@ -813,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
@@ -821,12 +826,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>1</v>
       </c>
       <c r="B13" s="7">
-        <f>($B$5 - $A13/20) * 10 * B$8 + 1</f>
+        <f t="shared" ref="B13:B32" si="0">($B$5 - $A13/20) * 10 * B$8 + 1</f>
         <v>8.25</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -849,12 +854,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>2</v>
       </c>
       <c r="B14" s="7">
-        <f>($B$5 - $A14/20) * 10 * B$8 + 1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -867,7 +872,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" ref="G14:I32" si="0">$F14*G$8+G$9</f>
+        <f t="shared" ref="G14:I32" si="1">$F14*G$8+G$9</f>
         <v>4</v>
       </c>
       <c r="H14" s="7" t="s">
@@ -877,12 +882,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>3</v>
       </c>
       <c r="B15" s="7">
-        <f>($B$5 - $A15/20) * 10 * B$8 + 1</f>
+        <f t="shared" si="0"/>
         <v>7.75</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -895,7 +900,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="H15" s="7" t="s">
@@ -905,12 +910,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>4</v>
       </c>
       <c r="B16" s="7">
-        <f>($B$5 - $A16/20) * 10 * B$8 + 1</f>
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -923,7 +928,7 @@
         <v>4</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H16" s="7" t="s">
@@ -933,16 +938,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>5</v>
       </c>
       <c r="B17" s="7">
-        <f>($B$5 - $A17/20) * 10 * B$8 + 1</f>
+        <f t="shared" si="0"/>
         <v>7.25</v>
       </c>
       <c r="C17" s="7">
-        <f>($B$5 - $A17/20) * 10 * C$8 + 1</f>
+        <f t="shared" ref="C17:C32" si="2">($B$5 - $A17/20) * 10 * C$8 + 1</f>
         <v>16</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -952,27 +957,27 @@
         <v>5</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="H17" s="7">
-        <f t="shared" ref="H13:I28" si="1">$F17*H$8+H$9</f>
+        <f t="shared" ref="H17:I28" si="3">$F17*H$8+H$9</f>
         <v>3</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>6</v>
       </c>
       <c r="B18" s="7">
-        <f>($B$5 - $A18/20) * 10 * B$8 + 1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C18" s="7">
-        <f>($B$5 - $A18/20) * 10 * C$8 + 1</f>
+        <f t="shared" si="2"/>
         <v>15.399999999999999</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -982,27 +987,27 @@
         <v>6</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.2</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>7</v>
       </c>
       <c r="B19" s="7">
-        <f>($B$5 - $A19/20) * 10 * B$8 + 1</f>
+        <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
       <c r="C19" s="7">
-        <f>($B$5 - $A19/20) * 10 * C$8 + 1</f>
+        <f t="shared" si="2"/>
         <v>14.799999999999999</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1012,27 +1017,27 @@
         <v>7</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.4000000000000004</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>8</v>
       </c>
       <c r="B20" s="7">
-        <f>($B$5 - $A20/20) * 10 * B$8 + 1</f>
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
       <c r="C20" s="7">
-        <f>($B$5 - $A20/20) * 10 * C$8 + 1</f>
+        <f t="shared" si="2"/>
         <v>14.2</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -1042,27 +1047,27 @@
         <v>8</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.6</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>9</v>
       </c>
       <c r="B21" s="7">
-        <f>($B$5 - $A21/20) * 10 * B$8 + 1</f>
+        <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
       <c r="C21" s="7">
-        <f>($B$5 - $A21/20) * 10 * C$8 + 1</f>
+        <f t="shared" si="2"/>
         <v>13.6</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -1072,383 +1077,383 @@
         <v>9</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="H21" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.8</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>10</v>
       </c>
       <c r="B22" s="7">
-        <f>($B$5 - $A22/20) * 10 * B$8 + 1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C22" s="7">
-        <f>($B$5 - $A22/20) * 10 * C$8 + 1</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="D22" s="7">
-        <f>($B$5 - $A22/20) * 10 * D$8 + 1</f>
+        <f t="shared" ref="D22:D32" si="4">($B$5 - $A22/20) * 10 * D$8 + 1</f>
         <v>31</v>
       </c>
       <c r="F22" s="7">
         <v>10</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="H22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>11</v>
       </c>
       <c r="B23" s="7">
-        <f>($B$5 - $A23/20) * 10 * B$8 + 1</f>
+        <f t="shared" si="0"/>
         <v>5.75</v>
       </c>
       <c r="C23" s="7">
-        <f>($B$5 - $A23/20) * 10 * C$8 + 1</f>
+        <f t="shared" si="2"/>
         <v>12.4</v>
       </c>
       <c r="D23" s="7">
-        <f>($B$5 - $A23/20) * 10 * D$8 + 1</f>
+        <f t="shared" si="4"/>
         <v>29.5</v>
       </c>
       <c r="F23" s="7">
         <v>11</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.2</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.1</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>12</v>
       </c>
       <c r="B24" s="7">
-        <f>($B$5 - $A24/20) * 10 * B$8 + 1</f>
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
       <c r="C24" s="7">
-        <f>($B$5 - $A24/20) * 10 * C$8 + 1</f>
+        <f t="shared" si="2"/>
         <v>11.799999999999999</v>
       </c>
       <c r="D24" s="7">
-        <f>($B$5 - $A24/20) * 10 * D$8 + 1</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="F24" s="7">
         <v>12</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="H24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="I24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>13</v>
       </c>
       <c r="B25" s="7">
-        <f>($B$5 - $A25/20) * 10 * B$8 + 1</f>
+        <f t="shared" si="0"/>
         <v>5.25</v>
       </c>
       <c r="C25" s="7">
-        <f>($B$5 - $A25/20) * 10 * C$8 + 1</f>
+        <f t="shared" si="2"/>
         <v>11.2</v>
       </c>
       <c r="D25" s="7">
-        <f>($B$5 - $A25/20) * 10 * D$8 + 1</f>
+        <f t="shared" si="4"/>
         <v>26.5</v>
       </c>
       <c r="F25" s="7">
         <v>13</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>14</v>
       </c>
       <c r="B26" s="7">
-        <f>($B$5 - $A26/20) * 10 * B$8 + 1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C26" s="7">
-        <f>($B$5 - $A26/20) * 10 * C$8 + 1</f>
+        <f t="shared" si="2"/>
         <v>10.6</v>
       </c>
       <c r="D26" s="7">
-        <f>($B$5 - $A26/20) * 10 * D$8 + 1</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="F26" s="7">
         <v>14</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.8000000000000007</v>
       </c>
       <c r="I26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>15</v>
       </c>
       <c r="B27" s="7">
-        <f>($B$5 - $A27/20) * 10 * B$8 + 1</f>
+        <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
       <c r="C27" s="7">
-        <f>($B$5 - $A27/20) * 10 * C$8 + 1</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D27" s="7">
-        <f>($B$5 - $A27/20) * 10 * D$8 + 1</f>
+        <f t="shared" si="4"/>
         <v>23.5</v>
       </c>
       <c r="F27" s="7">
         <v>15</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
       <c r="H27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="I27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>16</v>
       </c>
       <c r="B28" s="7">
-        <f>($B$5 - $A28/20) * 10 * B$8 + 1</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="C28" s="7">
-        <f>($B$5 - $A28/20) * 10 * C$8 + 1</f>
+        <f t="shared" si="2"/>
         <v>9.4</v>
       </c>
       <c r="D28" s="7">
-        <f>($B$5 - $A28/20) * 10 * D$8 + 1</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="F28" s="7">
         <v>16</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="H28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.2</v>
       </c>
       <c r="I28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.6</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>17</v>
       </c>
       <c r="B29" s="7">
-        <f>($B$5 - $A29/20) * 10 * B$8 + 1</f>
+        <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
       <c r="C29" s="7">
-        <f>($B$5 - $A29/20) * 10 * C$8 + 1</f>
+        <f t="shared" si="2"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="D29" s="7">
-        <f>($B$5 - $A29/20) * 10 * D$8 + 1</f>
+        <f t="shared" si="4"/>
         <v>20.5</v>
       </c>
       <c r="F29" s="7">
         <v>17</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
       <c r="H29" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4</v>
       </c>
       <c r="I29" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>18</v>
       </c>
       <c r="B30" s="7">
-        <f>($B$5 - $A30/20) * 10 * B$8 + 1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C30" s="7">
-        <f>($B$5 - $A30/20) * 10 * C$8 + 1</f>
+        <f t="shared" si="2"/>
         <v>8.1999999999999993</v>
       </c>
       <c r="D30" s="7">
-        <f>($B$5 - $A30/20) * 10 * D$8 + 1</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="F30" s="7">
         <v>18</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="H30" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.6</v>
       </c>
       <c r="I30" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>19</v>
       </c>
       <c r="B31" s="7">
-        <f>($B$5 - $A31/20) * 10 * B$8 + 1</f>
+        <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
       <c r="C31" s="7">
-        <f>($B$5 - $A31/20) * 10 * C$8 + 1</f>
+        <f t="shared" si="2"/>
         <v>7.6</v>
       </c>
       <c r="D31" s="7">
-        <f>($B$5 - $A31/20) * 10 * D$8 + 1</f>
+        <f t="shared" si="4"/>
         <v>17.5</v>
       </c>
       <c r="F31" s="7">
         <v>19</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
       <c r="H31" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.8000000000000007</v>
       </c>
       <c r="I31" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9000000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>20</v>
       </c>
       <c r="B32" s="7">
-        <f>($B$5 - $A32/20) * 10 * B$8 + 1</f>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="C32" s="7">
-        <f>($B$5 - $A32/20) * 10 * C$8 + 1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="D32" s="7">
-        <f>($B$5 - $A32/20) * 10 * D$8 + 1</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="F32" s="7">
         <v>20</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="H32" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I32" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>13</v>
       </c>
@@ -1456,7 +1461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -1465,174 +1470,174 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>2</v>
       </c>
       <c r="B40" s="2">
-        <f t="shared" ref="B40:B58" si="2">1000+(600 * ($A40 - 1))</f>
+        <f t="shared" ref="B40:B58" si="5">1000+(600 * ($A40 - 1))</f>
         <v>1600</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>3</v>
       </c>
       <c r="B41" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2200</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2800</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>5</v>
       </c>
       <c r="B43" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3400</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>6</v>
       </c>
       <c r="B44" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4000</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>7</v>
       </c>
       <c r="B45" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4600</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>8</v>
       </c>
       <c r="B46" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5200</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>9</v>
       </c>
       <c r="B47" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5800</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>10</v>
       </c>
       <c r="B48" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6400</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>11</v>
       </c>
       <c r="B49" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7000</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>12</v>
       </c>
       <c r="B50" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7600</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>13</v>
       </c>
       <c r="B51" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8200</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>14</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8800</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>15</v>
       </c>
       <c r="B53" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9400</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>16</v>
       </c>
       <c r="B54" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>17</v>
       </c>
       <c r="B55" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10600</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>18</v>
       </c>
       <c r="B56" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>11200</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>19</v>
       </c>
       <c r="B57" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>11800</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>20</v>
       </c>
       <c r="B58" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>12400</v>
       </c>
     </row>
@@ -1644,7 +1649,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
